--- a/biology/Zoologie/Avocettina/Avocettina.xlsx
+++ b/biology/Zoologie/Avocettina/Avocettina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Avocettina regroupe plusieurs espèces de poissons marins de forme allongée et vivant généralement en eaux profondes (avec comme maximum −4 580 m pour A. infans).
 On les rencontre dans tous les océans du globe à l'exception des océans Arctique et Austral.
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avocettina acuticeps (Regan, 1916)
 Avocettina bowersii (Garman, 1899)
@@ -546,7 +560,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jordan &amp; Davis : A preliminary review of the apodal fishes or eels inhabiting the waters of America and Europe. Report U.S. Commissioner of Fisheries 16: 581–677</t>
         </is>
